--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H2">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.42506861664197</v>
+        <v>21.38398133333333</v>
       </c>
       <c r="N2">
-        <v>3.42506861664197</v>
+        <v>64.151944</v>
       </c>
       <c r="O2">
-        <v>0.5367571198239303</v>
+        <v>0.864235283869651</v>
       </c>
       <c r="P2">
-        <v>0.5367571198239303</v>
+        <v>0.8642352838696511</v>
       </c>
       <c r="Q2">
-        <v>497.8092887732637</v>
+        <v>3472.743535594456</v>
       </c>
       <c r="R2">
-        <v>497.8092887732637</v>
+        <v>31254.6918203501</v>
       </c>
       <c r="S2">
-        <v>0.2023959123585259</v>
+        <v>0.3379481181173591</v>
       </c>
       <c r="T2">
-        <v>0.2023959123585259</v>
+        <v>0.3379481181173591</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H3">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.11478273199834</v>
+        <v>0.05505166666666667</v>
       </c>
       <c r="N3">
-        <v>2.11478273199834</v>
+        <v>0.165155</v>
       </c>
       <c r="O3">
-        <v>0.3314166270320501</v>
+        <v>0.002224917428963528</v>
       </c>
       <c r="P3">
-        <v>0.3314166270320501</v>
+        <v>0.002224917428963528</v>
       </c>
       <c r="Q3">
-        <v>307.3685831024974</v>
+        <v>8.940351965345</v>
       </c>
       <c r="R3">
-        <v>307.3685831024974</v>
+        <v>80.46316768810499</v>
       </c>
       <c r="S3">
-        <v>0.1249678264555487</v>
+        <v>0.0008700254110408944</v>
       </c>
       <c r="T3">
-        <v>0.1249678264555487</v>
+        <v>0.0008700254110408946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H4">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I4">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J4">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8411885857074231</v>
+        <v>2.229665</v>
       </c>
       <c r="N4">
-        <v>0.8411885857074231</v>
+        <v>6.688995</v>
       </c>
       <c r="O4">
-        <v>0.1318262531440197</v>
+        <v>0.09011208596621291</v>
       </c>
       <c r="P4">
-        <v>0.1318262531440197</v>
+        <v>0.09011208596621292</v>
       </c>
       <c r="Q4">
-        <v>122.2607598401211</v>
+        <v>362.096028545505</v>
       </c>
       <c r="R4">
-        <v>122.2607598401211</v>
+        <v>3258.864256909545</v>
       </c>
       <c r="S4">
-        <v>0.04970794758463926</v>
+        <v>0.0352371749225</v>
       </c>
       <c r="T4">
-        <v>0.04970794758463926</v>
+        <v>0.03523717492250001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.38518200466839</v>
+        <v>162.399297</v>
       </c>
       <c r="H5">
-        <v>65.38518200466839</v>
+        <v>487.197891</v>
       </c>
       <c r="I5">
-        <v>0.1696326867167437</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J5">
-        <v>0.1696326867167437</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.42506861664197</v>
+        <v>1.074542333333333</v>
       </c>
       <c r="N5">
-        <v>3.42506861664197</v>
+        <v>3.223627</v>
       </c>
       <c r="O5">
-        <v>0.5367571198239303</v>
+        <v>0.04342771273517247</v>
       </c>
       <c r="P5">
-        <v>0.5367571198239303</v>
+        <v>0.04342771273517248</v>
       </c>
       <c r="Q5">
-        <v>223.948734877613</v>
+        <v>174.504919530073</v>
       </c>
       <c r="R5">
-        <v>223.948734877613</v>
+        <v>1570.544275770657</v>
       </c>
       <c r="S5">
-        <v>0.09105155235007441</v>
+        <v>0.01698184981210091</v>
       </c>
       <c r="T5">
-        <v>0.09105155235007441</v>
+        <v>0.01698184981210091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H6">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J6">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.11478273199834</v>
+        <v>21.38398133333333</v>
       </c>
       <c r="N6">
-        <v>2.11478273199834</v>
+        <v>64.151944</v>
       </c>
       <c r="O6">
-        <v>0.3314166270320501</v>
+        <v>0.864235283869651</v>
       </c>
       <c r="P6">
-        <v>0.3314166270320501</v>
+        <v>0.8642352838696511</v>
       </c>
       <c r="Q6">
-        <v>138.2754538320413</v>
+        <v>1398.88370490786</v>
       </c>
       <c r="R6">
-        <v>138.2754538320413</v>
+        <v>12589.95334417074</v>
       </c>
       <c r="S6">
-        <v>0.05621909286604763</v>
+        <v>0.1361315947155672</v>
       </c>
       <c r="T6">
-        <v>0.05621909286604763</v>
+        <v>0.1361315947155672</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H7">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J7">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.8411885857074231</v>
+        <v>0.05505166666666667</v>
       </c>
       <c r="N7">
-        <v>0.8411885857074231</v>
+        <v>0.165155</v>
       </c>
       <c r="O7">
-        <v>0.1318262531440197</v>
+        <v>0.002224917428963528</v>
       </c>
       <c r="P7">
-        <v>0.1318262531440197</v>
+        <v>0.002224917428963528</v>
       </c>
       <c r="Q7">
-        <v>55.00126877672945</v>
+        <v>3.601334953841111</v>
       </c>
       <c r="R7">
-        <v>55.00126877672945</v>
+        <v>32.41201458457</v>
       </c>
       <c r="S7">
-        <v>0.02236204150062164</v>
+        <v>0.0003504619209240097</v>
       </c>
       <c r="T7">
-        <v>0.02236204150062164</v>
+        <v>0.0003504619209240097</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>113.557180850918</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H8">
-        <v>113.557180850918</v>
+        <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J8">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.42506861664197</v>
+        <v>2.229665</v>
       </c>
       <c r="N8">
-        <v>3.42506861664197</v>
+        <v>6.688995</v>
       </c>
       <c r="O8">
-        <v>0.5367571198239303</v>
+        <v>0.09011208596621291</v>
       </c>
       <c r="P8">
-        <v>0.5367571198239303</v>
+        <v>0.09011208596621292</v>
       </c>
       <c r="Q8">
-        <v>388.9411363268157</v>
+        <v>145.8588083895034</v>
       </c>
       <c r="R8">
-        <v>388.9411363268157</v>
+        <v>1312.72927550553</v>
       </c>
       <c r="S8">
-        <v>0.1581330399330539</v>
+        <v>0.01419416933638761</v>
       </c>
       <c r="T8">
-        <v>0.1581330399330539</v>
+        <v>0.01419416933638762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>113.557180850918</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H9">
-        <v>113.557180850918</v>
+        <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J9">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.11478273199834</v>
+        <v>1.074542333333333</v>
       </c>
       <c r="N9">
-        <v>2.11478273199834</v>
+        <v>3.223627</v>
       </c>
       <c r="O9">
-        <v>0.3314166270320501</v>
+        <v>0.04342771273517247</v>
       </c>
       <c r="P9">
-        <v>0.3314166270320501</v>
+        <v>0.04342771273517248</v>
       </c>
       <c r="Q9">
-        <v>240.148765157934</v>
+        <v>70.29372766943756</v>
       </c>
       <c r="R9">
-        <v>240.148765157934</v>
+        <v>632.643549024938</v>
       </c>
       <c r="S9">
-        <v>0.09763805039815462</v>
+        <v>0.006840595263616012</v>
       </c>
       <c r="T9">
-        <v>0.09763805039815462</v>
+        <v>0.006840595263616013</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H10">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I10">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J10">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8411885857074231</v>
+        <v>21.38398133333333</v>
       </c>
       <c r="N10">
-        <v>0.8411885857074231</v>
+        <v>64.151944</v>
       </c>
       <c r="O10">
-        <v>0.1318262531440197</v>
+        <v>0.864235283869651</v>
       </c>
       <c r="P10">
-        <v>0.1318262531440197</v>
+        <v>0.8642352838696511</v>
       </c>
       <c r="Q10">
-        <v>95.52300435690577</v>
+        <v>2700.945318510391</v>
       </c>
       <c r="R10">
-        <v>95.52300435690577</v>
+        <v>24308.50786659352</v>
       </c>
       <c r="S10">
-        <v>0.03883709294715304</v>
+        <v>0.2628410011199489</v>
       </c>
       <c r="T10">
-        <v>0.03883709294715304</v>
+        <v>0.262841001119949</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.1663210839279</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H11">
-        <v>61.1663210839279</v>
+        <v>378.92083</v>
       </c>
       <c r="I11">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J11">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>3.42506861664197</v>
+        <v>0.05505166666666667</v>
       </c>
       <c r="N11">
-        <v>3.42506861664197</v>
+        <v>0.165155</v>
       </c>
       <c r="O11">
-        <v>0.5367571198239303</v>
+        <v>0.002224917428963528</v>
       </c>
       <c r="P11">
-        <v>0.5367571198239303</v>
+        <v>0.002224917428963528</v>
       </c>
       <c r="Q11">
-        <v>209.4988467400075</v>
+        <v>6.953407742072223</v>
       </c>
       <c r="R11">
-        <v>209.4988467400075</v>
+        <v>62.58066967865</v>
       </c>
       <c r="S11">
-        <v>0.08517661518227604</v>
+        <v>0.0006766670319447399</v>
       </c>
       <c r="T11">
-        <v>0.08517661518227604</v>
+        <v>0.0006766670319447402</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.1663210839279</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H12">
-        <v>61.1663210839279</v>
+        <v>378.92083</v>
       </c>
       <c r="I12">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J12">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.11478273199834</v>
+        <v>2.229665</v>
       </c>
       <c r="N12">
-        <v>2.11478273199834</v>
+        <v>6.688995</v>
       </c>
       <c r="O12">
-        <v>0.3314166270320501</v>
+        <v>0.09011208596621291</v>
       </c>
       <c r="P12">
-        <v>0.3314166270320501</v>
+        <v>0.09011208596621292</v>
       </c>
       <c r="Q12">
-        <v>129.3534796081567</v>
+        <v>281.6221708073167</v>
       </c>
       <c r="R12">
-        <v>129.3534796081567</v>
+        <v>2534.59953726585</v>
       </c>
       <c r="S12">
-        <v>0.05259165731229916</v>
+        <v>0.02740590592681545</v>
       </c>
       <c r="T12">
-        <v>0.05259165731229916</v>
+        <v>0.02740590592681546</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.1663210839279</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H13">
-        <v>61.1663210839279</v>
+        <v>378.92083</v>
       </c>
       <c r="I13">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J13">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8411885857074231</v>
+        <v>1.074542333333333</v>
       </c>
       <c r="N13">
-        <v>0.8411885857074231</v>
+        <v>3.223627</v>
       </c>
       <c r="O13">
-        <v>0.1318262531440197</v>
+        <v>0.04342771273517247</v>
       </c>
       <c r="P13">
-        <v>0.1318262531440197</v>
+        <v>0.04342771273517248</v>
       </c>
       <c r="Q13">
-        <v>51.45241112551544</v>
+        <v>135.7221576056011</v>
       </c>
       <c r="R13">
-        <v>51.45241112551544</v>
+        <v>1221.49941845041</v>
       </c>
       <c r="S13">
-        <v>0.02091917111160576</v>
+        <v>0.01320772676689731</v>
       </c>
       <c r="T13">
-        <v>0.02091917111160576</v>
+        <v>0.01320772676689732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>61.180387</v>
+      </c>
+      <c r="H14">
+        <v>183.541161</v>
+      </c>
+      <c r="I14">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J14">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>21.38398133333333</v>
+      </c>
+      <c r="N14">
+        <v>64.151944</v>
+      </c>
+      <c r="O14">
+        <v>0.864235283869651</v>
+      </c>
+      <c r="P14">
+        <v>0.8642352838696511</v>
+      </c>
+      <c r="Q14">
+        <v>1308.280253574109</v>
+      </c>
+      <c r="R14">
+        <v>11774.52228216698</v>
+      </c>
+      <c r="S14">
+        <v>0.1273145699167758</v>
+      </c>
+      <c r="T14">
+        <v>0.1273145699167758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>61.180387</v>
+      </c>
+      <c r="H15">
+        <v>183.541161</v>
+      </c>
+      <c r="I15">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J15">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.05505166666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.165155</v>
+      </c>
+      <c r="O15">
+        <v>0.002224917428963528</v>
+      </c>
+      <c r="P15">
+        <v>0.002224917428963528</v>
+      </c>
+      <c r="Q15">
+        <v>3.368082271661666</v>
+      </c>
+      <c r="R15">
+        <v>30.312740444955</v>
+      </c>
+      <c r="S15">
+        <v>0.0003277630650538838</v>
+      </c>
+      <c r="T15">
+        <v>0.0003277630650538839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>61.180387</v>
+      </c>
+      <c r="H16">
+        <v>183.541161</v>
+      </c>
+      <c r="I16">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J16">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.229665</v>
+      </c>
+      <c r="N16">
+        <v>6.688995</v>
+      </c>
+      <c r="O16">
+        <v>0.09011208596621291</v>
+      </c>
+      <c r="P16">
+        <v>0.09011208596621292</v>
+      </c>
+      <c r="Q16">
+        <v>136.411767580355</v>
+      </c>
+      <c r="R16">
+        <v>1227.705908223195</v>
+      </c>
+      <c r="S16">
+        <v>0.01327483578050984</v>
+      </c>
+      <c r="T16">
+        <v>0.01327483578050985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>61.180387</v>
+      </c>
+      <c r="H17">
+        <v>183.541161</v>
+      </c>
+      <c r="I17">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J17">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.074542333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.223627</v>
+      </c>
+      <c r="O17">
+        <v>0.04342771273517247</v>
+      </c>
+      <c r="P17">
+        <v>0.04342771273517248</v>
+      </c>
+      <c r="Q17">
+        <v>65.74091580121633</v>
+      </c>
+      <c r="R17">
+        <v>591.6682422109469</v>
+      </c>
+      <c r="S17">
+        <v>0.00639754089255824</v>
+      </c>
+      <c r="T17">
+        <v>0.006397540892558242</v>
       </c>
     </row>
   </sheetData>
